--- a/HW3.xlsx
+++ b/HW3.xlsx
@@ -465,6 +465,7 @@
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="11" customWidth="1" min="15" max="15"/>
     <col width="11" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -548,6 +549,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Backtracking</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/HW3.xlsx
+++ b/HW3.xlsx
@@ -4226,7 +4226,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>gb : N,K</t>
+          <t>g : N,K</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>gb : N,K</t>
+          <t>g : N,K</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>gb : N,K</t>
+          <t>g : N,K</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -4470,9 +4470,9 @@
           <t>r</t>
         </is>
       </c>
-      <c r="I49" s="3" t="inlineStr">
-        <is>
-          <t>g</t>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>g : N</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -4480,9 +4480,9 @@
           <t>r</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>rb : N</t>
+      <c r="K49" s="1" t="inlineStr">
+        <is>
+          <t>r</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>rb : K</t>
+          <t>b : I</t>
         </is>
       </c>
       <c r="O49" s="6" t="inlineStr">
@@ -4552,9 +4552,9 @@
           <t>r</t>
         </is>
       </c>
-      <c r="I50" s="4" t="inlineStr">
-        <is>
-          <t>g</t>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>g : N</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -4562,9 +4562,9 @@
           <t>r</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>rb : N</t>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>r</t>
         </is>
       </c>
       <c r="L50" s="4" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>rb : K</t>
+          <t>b : I</t>
         </is>
       </c>
       <c r="O50" s="6" t="inlineStr">
@@ -4634,7 +4634,7 @@
           <t>r</t>
         </is>
       </c>
-      <c r="I51" s="4" t="inlineStr">
+      <c r="I51" s="3" t="inlineStr">
         <is>
           <t>g</t>
         </is>
@@ -4644,7 +4644,7 @@
           <t>r</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" s="2" t="inlineStr">
         <is>
           <t>r</t>
         </is>
